--- a/data/stock_analysis.xlsx
+++ b/data/stock_analysis.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Trading Signals" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Market Overview" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Top Gainers" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Most Active" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sector Distribution" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -792,7 +795,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -801,90 +804,440 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>Analysis Date</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>22-11-2024 04:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Total Market Cap</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9186832.4691968</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Average P/E</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>30.392787</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Market Breadth</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Symbol</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Company Name</t>
+        </is>
+      </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Market Cap</t>
+          <t>Current Price</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Average P/E</t>
+          <t>Daily Change %</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Market Breadth</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Top Gainers</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Most Active</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Sector Distribution</t>
+          <t>Volume</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>TCS</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>22-11-2024 02:00</t>
+          <t>Tata Consultancy Services Limited</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9186832.4691968</v>
+        <v>4072.85009765625</v>
       </c>
       <c r="D2" t="n">
-        <v>30.392787</v>
+        <v>0.8243504456092916</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">       Symbol                       Company Name  Current Price  Daily Change %   Volume
-1         TCS  Tata Consultancy Services Limited    4072.850098        0.824350  2384254
-9   KOTAKBANK        Kotak Mahindra Bank Limited    1737.099976        0.541165  3294004
-3        INFY                    Infosys Limited    1834.050049        0.509662  5436293
-4   ICICIBANK                 ICICI Bank Limited    1250.550049        0.116089  9593214
-8  BHARTIARTL              Bharti Airtel Limited    1525.150024       -0.022942  7356221</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      Symbol                 Company Name  Current Price  Daily Change %    Volume
-7       SBIN          State Bank of India     780.750000       -2.770859  29481857
-6        ITC                  ITC Limited     457.149994       -2.182521  19558649
-0   RELIANCE  Reliance Industries Limited    1223.000000       -1.502036  19428850
-2   HDFCBANK            HDFC Bank Limited    1741.199951       -0.060270  17856827
-4  ICICIBANK           ICICI Bank Limited    1250.550049        0.116089   9593214</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Sector
-Communication Services    9.114633e+05
-Consumer Defensive        1.131896e+06
-Energy                    1.655012e+06
-Financial Services        3.255201e+06
-Technology                2.233259e+06
-Name: Market Cap (Cr), dtype: float64</t>
-        </is>
+        <v>2384254</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>KOTAKBANK</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Kotak Mahindra Bank Limited</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1737.099975585938</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5411648436369556</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3294004</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>INFY</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Infosys Limited</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1834.050048828125</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5096615332579806</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5436293</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ICICIBANK</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ICICI Bank Limited</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1250.550048828125</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1160894460435233</v>
+      </c>
+      <c r="E5" t="n">
+        <v>9593214</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>BHARTIARTL</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bharti Airtel Limited</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1525.150024414062</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.02294169688216978</v>
+      </c>
+      <c r="E6" t="n">
+        <v>7356221</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Symbol</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Company Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Current Price</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Daily Change %</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Volume</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>SBIN</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>State Bank of India</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>780.75</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-2.770859277708593</v>
+      </c>
+      <c r="E2" t="n">
+        <v>29481857</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ITC</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ITC Limited</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>457.1499938964844</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-2.18252103858366</v>
+      </c>
+      <c r="E3" t="n">
+        <v>19558649</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>RELIANCE</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Reliance Industries Limited</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1223</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-1.502035521069111</v>
+      </c>
+      <c r="E4" t="n">
+        <v>19428850</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HDFCBANK</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>HDFC Bank Limited</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1741.199951171875</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.06026969884488449</v>
+      </c>
+      <c r="E5" t="n">
+        <v>17856827</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ICICIBANK</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ICICI Bank Limited</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1250.550048828125</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1160894460435233</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9593214</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Sector</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Market Cap (Cr)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Communication Services</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>911463.2585216</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Consumer Defensive</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1131896.373248</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1655012.4847104</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3255201.1431936</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2233259.2095232</v>
       </c>
     </row>
   </sheetData>

--- a/data/stock_analysis.xlsx
+++ b/data/stock_analysis.xlsx
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1223</v>
+        <v>1265.400024414062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -494,10 +494,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-1.502035521069111</v>
+        <v>3.466886705974039</v>
       </c>
       <c r="F2" t="n">
-        <v>24.381977</v>
+        <v>25.159235</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4072.85009765625</v>
+        <v>4244.60009765625</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -525,10 +525,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.8243504456092916</v>
+        <v>4.216948718511264</v>
       </c>
       <c r="F3" t="n">
-        <v>31.118963</v>
+        <v>32.295193</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -548,7 +548,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1741.199951171875</v>
+        <v>1745.599975585938</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -556,10 +556,10 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>-0.06026969884488449</v>
+        <v>0.2527006970739439</v>
       </c>
       <c r="F4" t="n">
-        <v>19.71244</v>
+        <v>19.72263</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -579,7 +579,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1834.050048828125</v>
+        <v>1902.25</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -587,10 +587,10 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.5096615332579806</v>
+        <v>3.718543625101817</v>
       </c>
       <c r="F5" t="n">
-        <v>28.23353</v>
+        <v>29.037811</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -610,7 +610,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1250.550048828125</v>
+        <v>1278.050048828125</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -618,10 +618,10 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.1160894460435233</v>
+        <v>2.199032339870756</v>
       </c>
       <c r="F6" t="n">
-        <v>18.924788</v>
+        <v>19.340193</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -641,7 +641,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2382.800048828125</v>
+        <v>2445.25</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -649,10 +649,10 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-1.142989512391325</v>
+        <v>2.620864104925138</v>
       </c>
       <c r="F7" t="n">
-        <v>54.613796</v>
+        <v>55.745945</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>457.1499938964844</v>
+        <v>474.6499938964844</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -680,10 +680,10 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-2.18252103858366</v>
+        <v>3.828065237590847</v>
       </c>
       <c r="F8" t="n">
-        <v>27.875</v>
+        <v>28.867235</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -703,7 +703,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>780.75</v>
+        <v>816.0499877929688</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -711,10 +711,10 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>-2.770859277708593</v>
+        <v>4.52129206442123</v>
       </c>
       <c r="F9" t="n">
-        <v>9.732609999999999</v>
+        <v>10.153952</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -734,7 +734,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1525.150024414062</v>
+        <v>1569.300048828125</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -742,10 +742,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>-0.02294169688216978</v>
+        <v>2.894798787484806</v>
       </c>
       <c r="F10" t="n">
-        <v>73.501205</v>
+        <v>75.73154</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1737.099975585938</v>
+        <v>1761.449951171875</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -773,10 +773,10 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.5411648436369556</v>
+        <v>1.401760170868925</v>
       </c>
       <c r="F11" t="n">
-        <v>15.833561</v>
+        <v>16.054312</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -823,7 +823,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>22-11-2024 04:10</t>
+          <t>25-11-2024 02:49</t>
         </is>
       </c>
     </row>
@@ -834,7 +834,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9186832.4691968</v>
+        <v>9435127.2706048</v>
       </c>
     </row>
     <row r="4">
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>30.392787</v>
+        <v>31.2108046</v>
       </c>
     </row>
     <row r="5">
@@ -854,7 +854,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -906,106 +906,106 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TCS</t>
+          <t>SBIN</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tata Consultancy Services Limited</t>
+          <t>State Bank of India</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4072.85009765625</v>
+        <v>816.0499877929688</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8243504456092916</v>
+        <v>4.52129206442123</v>
       </c>
       <c r="E2" t="n">
-        <v>2384254</v>
+        <v>20665405</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>KOTAKBANK</t>
+          <t>TCS</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Kotak Mahindra Bank Limited</t>
+          <t>Tata Consultancy Services Limited</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1737.099975585938</v>
+        <v>4244.60009765625</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5411648436369556</v>
+        <v>4.216948718511264</v>
       </c>
       <c r="E3" t="n">
-        <v>3294004</v>
+        <v>3096553</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>INFY</t>
+          <t>ITC</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Infosys Limited</t>
+          <t>ITC Limited</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1834.050048828125</v>
+        <v>474.6499938964844</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5096615332579806</v>
+        <v>3.828065237590847</v>
       </c>
       <c r="E4" t="n">
-        <v>5436293</v>
+        <v>19464568</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ICICIBANK</t>
+          <t>INFY</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ICICI Bank Limited</t>
+          <t>Infosys Limited</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1250.550048828125</v>
+        <v>1902.25</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1160894460435233</v>
+        <v>3.718543625101817</v>
       </c>
       <c r="E5" t="n">
-        <v>9593214</v>
+        <v>6301486</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BHARTIARTL</t>
+          <t>RELIANCE</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bharti Airtel Limited</t>
+          <t>Reliance Industries Limited</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1525.150024414062</v>
+        <v>1265.400024414062</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.02294169688216978</v>
+        <v>3.466886705974039</v>
       </c>
       <c r="E6" t="n">
-        <v>7356221</v>
+        <v>20471957</v>
       </c>
     </row>
   </sheetData>
@@ -1066,55 +1066,55 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>780.75</v>
+        <v>816.0499877929688</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.770859277708593</v>
+        <v>4.52129206442123</v>
       </c>
       <c r="E2" t="n">
-        <v>29481857</v>
+        <v>20665405</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ITC</t>
+          <t>RELIANCE</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ITC Limited</t>
+          <t>Reliance Industries Limited</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>457.1499938964844</v>
+        <v>1265.400024414062</v>
       </c>
       <c r="D3" t="n">
-        <v>-2.18252103858366</v>
+        <v>3.466886705974039</v>
       </c>
       <c r="E3" t="n">
-        <v>19558649</v>
+        <v>20471957</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>RELIANCE</t>
+          <t>ITC</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Reliance Industries Limited</t>
+          <t>ITC Limited</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1223</v>
+        <v>474.6499938964844</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.502035521069111</v>
+        <v>3.828065237590847</v>
       </c>
       <c r="E4" t="n">
-        <v>19428850</v>
+        <v>19464568</v>
       </c>
     </row>
     <row r="5">
@@ -1129,13 +1129,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1741.199951171875</v>
+        <v>1745.599975585938</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.06026969884488449</v>
+        <v>0.2527006970739439</v>
       </c>
       <c r="E5" t="n">
-        <v>17856827</v>
+        <v>12386806</v>
       </c>
     </row>
     <row r="6">
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1250.550048828125</v>
+        <v>1278.050048828125</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1160894460435233</v>
+        <v>2.199032339870756</v>
       </c>
       <c r="E6" t="n">
-        <v>9593214</v>
+        <v>11604338</v>
       </c>
     </row>
   </sheetData>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>911463.2585216</v>
+        <v>937791.848448</v>
       </c>
     </row>
     <row r="3">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1131896.373248</v>
+        <v>1166348.4911616</v>
       </c>
     </row>
     <row r="4">
@@ -1217,7 +1217,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1655012.4847104</v>
+        <v>1710495.2623104</v>
       </c>
     </row>
     <row r="5">
@@ -1227,7 +1227,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3255201.1431936</v>
+        <v>3310443.5085312</v>
       </c>
     </row>
     <row r="6">
@@ -1237,7 +1237,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2233259.2095232</v>
+        <v>2310048.1601536</v>
       </c>
     </row>
   </sheetData>

--- a/data/stock_analysis.xlsx
+++ b/data/stock_analysis.xlsx
@@ -823,7 +823,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>25-11-2024 02:49</t>
+          <t>25-11-2024 03:41</t>
         </is>
       </c>
     </row>

--- a/data/stock_analysis.xlsx
+++ b/data/stock_analysis.xlsx
@@ -823,7 +823,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>25-11-2024 03:41</t>
+          <t>25-11-2024 03:54</t>
         </is>
       </c>
     </row>

--- a/data/stock_analysis.xlsx
+++ b/data/stock_analysis.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,16 +477,16 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>RELIANCE</t>
+          <t>ADANIENT</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Reliance Industries Limited</t>
+          <t>Adani Enterprises Limited</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1265.400024414062</v>
+        <v>2228</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -494,10 +494,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3.466886705974039</v>
+        <v>2.03100769993616</v>
       </c>
       <c r="F2" t="n">
-        <v>25.159235</v>
+        <v>47.882755</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -508,16 +508,16 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TCS</t>
+          <t>ADANIPORTS</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tata Consultancy Services Limited</t>
+          <t>Adani Ports and Special Economic Zone Limited</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4244.60009765625</v>
+        <v>1136.75</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -525,61 +525,61 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4.216948718511264</v>
+        <v>1.982682914088194</v>
       </c>
       <c r="F3" t="n">
-        <v>32.295193</v>
+        <v>23.947811</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Industrials</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HDFCBANK</t>
+          <t>APOLLOHOSP</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HDFC Bank Limited</t>
+          <t>Apollo Hospitals Enterprise Limited</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1745.599975585938</v>
+        <v>6935.10009765625</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.2527006970739439</v>
+        <v>2.856508678624397</v>
       </c>
       <c r="F4" t="n">
-        <v>19.72263</v>
+        <v>83.630196</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Healthcare</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>INFY</t>
+          <t>ASIANPAINT</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Infosys Limited</t>
+          <t>Asian Paints Limited</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1902.25</v>
+        <v>2472.199951171875</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -587,41 +587,41 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3.718543625101817</v>
+        <v>1.814140419650619</v>
       </c>
       <c r="F5" t="n">
-        <v>29.037811</v>
+        <v>51.765877</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Basic Materials</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ICICIBANK</t>
+          <t>AXISBANK</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ICICI Bank Limited</t>
+          <t>Axis Bank Limited</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1278.050048828125</v>
+        <v>1142.400024414062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2.199032339870756</v>
+        <v>0.2853004371984877</v>
       </c>
       <c r="F6" t="n">
-        <v>19.340193</v>
+        <v>12.716338</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -632,16 +632,16 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HINDUNILVR</t>
+          <t>BAJAJ-AUTO</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Hindustan Unilever Limited</t>
+          <t>Bajaj Auto Limited</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2445.25</v>
+        <v>9481.650390625</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -649,30 +649,30 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2.620864104925138</v>
+        <v>-0.2456560691741189</v>
       </c>
       <c r="F7" t="n">
-        <v>55.745945</v>
+        <v>36.049343</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Consumer Defensive</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ITC</t>
+          <t>BAJAJFINSV</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ITC Limited</t>
+          <t>Bajaj Finserv Ltd.</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>474.6499938964844</v>
+        <v>1600.849975585938</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -680,41 +680,41 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3.828065237590847</v>
+        <v>2.013699256711008</v>
       </c>
       <c r="F8" t="n">
-        <v>28.867235</v>
+        <v>30.30475</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Consumer Defensive</t>
+          <t>Financial Services</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SBIN</t>
+          <t>BAJFINANCE</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>State Bank of India</t>
+          <t>Bajaj Finance Limited</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>816.0499877929688</v>
+        <v>6683.9501953125</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Buy</t>
+          <t>Sell</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4.52129206442123</v>
+        <v>3.376308588709973</v>
       </c>
       <c r="F9" t="n">
-        <v>10.153952</v>
+        <v>27.027027</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -725,16 +725,16 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BHARTIARTL</t>
+          <t>BPCL</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Bharti Airtel Limited</t>
+          <t>Bharat Petroleum Corporation Limited</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1569.300048828125</v>
+        <v>285.8500061035156</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -742,45 +742,1254 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2.894798787484806</v>
+        <v>1.221675737109214</v>
       </c>
       <c r="F10" t="n">
-        <v>75.73154</v>
+        <v>9.306867</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Communication Services</t>
+          <t>Energy</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>BHARTIARTL</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Bharti Airtel Limited</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1569.300048828125</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>2.894798787484806</v>
+      </c>
+      <c r="F11" t="n">
+        <v>75.73154</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Communication Services</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>BRITANNIA</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Britannia Industries Limited</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>4848.35009765625</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>0.936846140404326</v>
+      </c>
+      <c r="F12" t="n">
+        <v>54.665806</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Consumer Defensive</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CIPLA</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Cipla Limited</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1486.5</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>1.432958034800409</v>
+      </c>
+      <c r="F13" t="n">
+        <v>26.785393</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>COALINDIA</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Coal India Limited</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>414.0499877929688</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>1.982755614031712</v>
+      </c>
+      <c r="F14" t="n">
+        <v>7.0725875</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>DIVISLAB</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Divi's Laboratories Limited</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>5998.35009765625</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>0.3555235758613543</v>
+      </c>
+      <c r="F15" t="n">
+        <v>86.98173</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>DRREDDY</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Dr. Reddy's Laboratories Limited</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1214.449951171875</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>1.597856358057402</v>
+      </c>
+      <c r="F16" t="n">
+        <v>18.341139</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>EICHERMOT</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Eicher Motors Limited</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>4986.2001953125</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>2.132281099812463</v>
+      </c>
+      <c r="F17" t="n">
+        <v>32.014526</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Consumer Cyclical</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>GRASIM</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Grasim Industries Limited</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2598.64990234375</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>2.516906413775315</v>
+      </c>
+      <c r="F18" t="n">
+        <v>38.351097</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Basic Materials</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>HCLTECH</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>HCL Technologies Limited</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1898.400024414062</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>3.378988191416304</v>
+      </c>
+      <c r="F19" t="n">
+        <v>30.558954</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>HDFCBANK</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>HDFC Bank Limited</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1745.599975585938</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>0.2527006970739439</v>
+      </c>
+      <c r="F20" t="n">
+        <v>19.72263</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>HDFCLIFE</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>HDFC Life Insurance Company Limited</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>688.2000122070312</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>2.046261461060676</v>
+      </c>
+      <c r="F21" t="n">
+        <v>87.30573</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>HEROMOTOCO</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Hero MotoCorp Limited</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>4794.10009765625</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>0.5505626112889709</v>
+      </c>
+      <c r="F22" t="n">
+        <v>23.171852</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Consumer Cyclical</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>HINDALCO</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Hindalco Industries Limited</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>652.0999755859375</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>0.6249499065282895</v>
+      </c>
+      <c r="F23" t="n">
+        <v>11.611753</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Basic Materials</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>HINDUNILVR</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Hindustan Unilever Limited</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2445.25</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>2.620864104925138</v>
+      </c>
+      <c r="F24" t="n">
+        <v>55.745945</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Consumer Defensive</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ICICIBANK</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ICICI Bank Limited</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1278.050048828125</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>2.199032339870756</v>
+      </c>
+      <c r="F25" t="n">
+        <v>19.340193</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>INDUSINDBK</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>IndusInd Bank Limited</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>998.2000122070312</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>1.706658494234822</v>
+      </c>
+      <c r="F26" t="n">
+        <v>9.546411000000001</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>INFY</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Infosys Limited</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1902.25</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>3.718543625101817</v>
+      </c>
+      <c r="F27" t="n">
+        <v>29.037811</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ITC</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ITC Limited</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>474.6499938964844</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>3.828065237590847</v>
+      </c>
+      <c r="F28" t="n">
+        <v>28.867235</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Consumer Defensive</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>JSWSTEEL</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>JSW Steel Limited</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>977.3499755859375</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>3.516385141490498</v>
+      </c>
+      <c r="F29" t="n">
+        <v>47.723934</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Basic Materials</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
           <t>KOTAKBANK</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>Kotak Mahindra Bank Limited</t>
         </is>
       </c>
-      <c r="C11" t="n">
+      <c r="C30" t="n">
         <v>1761.449951171875</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Sell</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
         <v>1.401760170868925</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F30" t="n">
         <v>16.054312</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>Financial Services</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>LT</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Larsen &amp; Toubro Limited</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>3603.5</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>3.444811253050093</v>
+      </c>
+      <c r="F31" t="n">
+        <v>36.77821</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>M&amp;M</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Mahindra &amp; Mahindra Limited</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>3012.949951171875</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>2.612173730842912</v>
+      </c>
+      <c r="F32" t="n">
+        <v>29.686884</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Consumer Cyclical</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>MARUTI</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Maruti Suzuki India Limited</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>11063.599609375</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>1.861164121064994</v>
+      </c>
+      <c r="F33" t="n">
+        <v>24.828533</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Consumer Cyclical</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>NTPC</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>NTPC Limited</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>365.4500122070312</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>2.611264486852678</v>
+      </c>
+      <c r="F34" t="n">
+        <v>18.51269</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Utilities</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>NESTLEIND</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Nestlé India Limited</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>2247.300048828125</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>1.632602137003392</v>
+      </c>
+      <c r="F35" t="n">
+        <v>72.83208500000001</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Consumer Defensive</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>ONGC</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Oil and Natural Gas Corporation Limited</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>245.6000061035156</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>1.424741810444183</v>
+      </c>
+      <c r="F36" t="n">
+        <v>7.5153093</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>POWERGRID</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Power Grid Corporation of India Limited</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>336.9500122070312</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>3.390616298709319</v>
+      </c>
+      <c r="F37" t="n">
+        <v>20.023836</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Utilities</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>RELIANCE</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Reliance Industries Limited</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1265.400024414062</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>3.466886705974039</v>
+      </c>
+      <c r="F38" t="n">
+        <v>25.159235</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>SBILIFE</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>SBI Life Insurance Company Limited</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1485.150024414062</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>0.4871662424345642</v>
+      </c>
+      <c r="F39" t="n">
+        <v>68.12643</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>SBIN</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>State Bank of India</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>816.0499877929688</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>4.52129206442123</v>
+      </c>
+      <c r="F40" t="n">
+        <v>10.153952</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>SUNPHARMA</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Sun Pharmaceutical Industries Limited</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1795.300048828125</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>0.8595533049508428</v>
+      </c>
+      <c r="F41" t="n">
+        <v>39.13307</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>TCS</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Tata Consultancy Services Limited</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>4244.60009765625</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>4.216948718511264</v>
+      </c>
+      <c r="F42" t="n">
+        <v>32.295193</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>TATACONSUM</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Tata Consumer Products Limited</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>945.2000122070312</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>3.67445426691436</v>
+      </c>
+      <c r="F43" t="n">
+        <v>79.17716</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Consumer Defensive</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>TATAMOTORS</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Tata Motors Limited</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>791</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>2.216194993231987</v>
+      </c>
+      <c r="F44" t="n">
+        <v>8.820263000000001</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Consumer Cyclical</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>TATASTEEL</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Tata Steel Limited</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>142.7799987792969</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>1.825700710531568</v>
+      </c>
+      <c r="F45" t="n">
+        <v>59.894955</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Basic Materials</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>TECHM</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Tech Mahindra Limited</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>1747.449951171875</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>2.655306281208694</v>
+      </c>
+      <c r="F46" t="n">
+        <v>47.304043</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>TITAN</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Titan Company Limited</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>3308.699951171875</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>4.097909421288123</v>
+      </c>
+      <c r="F47" t="n">
+        <v>89.89927</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Consumer Cyclical</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>ULTRACEMCO</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>UltraTech Cement Limited</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>11375.2998046875</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>3.838027999514341</v>
+      </c>
+      <c r="F48" t="n">
+        <v>49.673203</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Basic Materials</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>UPL</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>UPL Limited</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>566.4000244140625</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Sell</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>1.91633367774404</v>
+      </c>
+      <c r="F49" t="n">
+        <v>6.1938663</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Basic Materials</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>WIPRO</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Wipro Limited</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>571.6500244140625</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>2.602530622743704</v>
+      </c>
+      <c r="F50" t="n">
+        <v>25.497547</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Technology</t>
         </is>
       </c>
     </row>
@@ -823,7 +2032,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>25-11-2024 03:54</t>
+          <t>25-11-2024 09:06</t>
         </is>
       </c>
     </row>
@@ -834,7 +2043,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9435127.2706048</v>
+        <v>18663321.0953728</v>
       </c>
     </row>
     <row r="4">
@@ -844,7 +2053,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31.2108046</v>
+        <v>36.5870872877551</v>
       </c>
     </row>
     <row r="5">
@@ -854,7 +2063,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.9795918367346939</v>
       </c>
     </row>
   </sheetData>
@@ -948,64 +2157,64 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ITC</t>
+          <t>TITAN</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ITC Limited</t>
+          <t>Titan Company Limited</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>474.6499938964844</v>
+        <v>3308.699951171875</v>
       </c>
       <c r="D4" t="n">
-        <v>3.828065237590847</v>
+        <v>4.097909421288123</v>
       </c>
       <c r="E4" t="n">
-        <v>19464568</v>
+        <v>2207527</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>INFY</t>
+          <t>ULTRACEMCO</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Infosys Limited</t>
+          <t>UltraTech Cement Limited</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1902.25</v>
+        <v>11375.2998046875</v>
       </c>
       <c r="D5" t="n">
-        <v>3.718543625101817</v>
+        <v>3.838027999514341</v>
       </c>
       <c r="E5" t="n">
-        <v>6301486</v>
+        <v>328426</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>RELIANCE</t>
+          <t>ITC</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Reliance Industries Limited</t>
+          <t>ITC Limited</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1265.400024414062</v>
+        <v>474.6499938964844</v>
       </c>
       <c r="D6" t="n">
-        <v>3.466886705974039</v>
+        <v>3.828065237590847</v>
       </c>
       <c r="E6" t="n">
-        <v>20471957</v>
+        <v>19464568</v>
       </c>
     </row>
   </sheetData>
@@ -1057,106 +2266,106 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SBIN</t>
+          <t>TATASTEEL</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>State Bank of India</t>
+          <t>Tata Steel Limited</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>816.0499877929688</v>
+        <v>142.7799987792969</v>
       </c>
       <c r="D2" t="n">
-        <v>4.52129206442123</v>
+        <v>1.825700710531568</v>
       </c>
       <c r="E2" t="n">
-        <v>20665405</v>
+        <v>43710169</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RELIANCE</t>
+          <t>POWERGRID</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Reliance Industries Limited</t>
+          <t>Power Grid Corporation of India Limited</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1265.400024414062</v>
+        <v>336.9500122070312</v>
       </c>
       <c r="D3" t="n">
-        <v>3.466886705974039</v>
+        <v>3.390616298709319</v>
       </c>
       <c r="E3" t="n">
-        <v>20471957</v>
+        <v>31523269</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ITC</t>
+          <t>ADANIPORTS</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ITC Limited</t>
+          <t>Adani Ports and Special Economic Zone Limited</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>474.6499938964844</v>
+        <v>1136.75</v>
       </c>
       <c r="D4" t="n">
-        <v>3.828065237590847</v>
+        <v>1.982682914088194</v>
       </c>
       <c r="E4" t="n">
-        <v>19464568</v>
+        <v>27086168</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HDFCBANK</t>
+          <t>ADANIENT</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HDFC Bank Limited</t>
+          <t>Adani Enterprises Limited</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1745.599975585938</v>
+        <v>2228</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2527006970739439</v>
+        <v>2.03100769993616</v>
       </c>
       <c r="E5" t="n">
-        <v>12386806</v>
+        <v>20939196</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ICICIBANK</t>
+          <t>SBIN</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ICICI Bank Limited</t>
+          <t>State Bank of India</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1278.050048828125</v>
+        <v>816.0499877929688</v>
       </c>
       <c r="D6" t="n">
-        <v>2.199032339870756</v>
+        <v>4.52129206442123</v>
       </c>
       <c r="E6" t="n">
-        <v>11604338</v>
+        <v>20665405</v>
       </c>
     </row>
   </sheetData>
@@ -1170,7 +2379,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1193,51 +2402,101 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Communication Services</t>
+          <t>Basic Materials</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>937791.848448</v>
+        <v>1340161.0780672</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Consumer Defensive</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1166348.4911616</v>
+        <v>937791.848448</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1710495.2623104</v>
+        <v>1829412.4576768</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3310443.5085312</v>
+        <v>1592686.4576512</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2656121.1006976</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Financial Services</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>4709366.3072256</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>912827.1937536</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>741719.9067136</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
           <t>Technology</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>2310048.1601536</v>
+      <c r="B10" t="n">
+        <v>3276808.8342528</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Utilities</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>666425.9108863999</v>
       </c>
     </row>
   </sheetData>
